--- a/FIND_DEMO/物料清单.xlsx
+++ b/FIND_DEMO/物料清单.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13480"/>
+    <workbookView windowWidth="28800" windowHeight="13480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="埋入螺母" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>名称</t>
   </si>
@@ -89,6 +90,51 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?spm=a1z10.5-b.w4011-15368511959.66.504c4f47yEVyHA&amp;id=551257114319&amp;rn=316dd2f1329bb35037a20b5a1e54d322&amp;abbucket=20</t>
+  </si>
+  <si>
+    <t>埋入螺母</t>
+  </si>
+  <si>
+    <t>部位</t>
+  </si>
+  <si>
+    <t>外径</t>
+  </si>
+  <si>
+    <t>原始深度</t>
+  </si>
+  <si>
+    <t>建议外径</t>
+  </si>
+  <si>
+    <t>建议深度</t>
+  </si>
+  <si>
+    <t>建议内径</t>
+  </si>
+  <si>
+    <t>匹配螺丝深度</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>脚部</t>
+  </si>
+  <si>
+    <t>小腿</t>
+  </si>
+  <si>
+    <t>3*4</t>
+  </si>
+  <si>
+    <t>身体</t>
+  </si>
+  <si>
+    <t>胳膊</t>
+  </si>
+  <si>
+    <t>12*19</t>
   </si>
 </sst>
 </file>
@@ -96,18 +142,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="兰亭黑-简"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -131,7 +183,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,8 +227,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,10 +275,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,58 +304,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,34 +318,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -276,6 +328,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -288,19 +430,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,96 +502,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,48 +509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,21 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -503,17 +540,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,37 +590,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,94 +624,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,66 +720,72 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1049,139 +1107,154 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="2"/>
-    <col min="2" max="2" width="14.4285714285714" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.14285714285714" style="2"/>
-    <col min="4" max="4" width="31.3928571428571" style="3" customWidth="1"/>
-    <col min="5" max="5" width="68.1428571428571" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="9.14285714285714" style="4"/>
+    <col min="2" max="2" width="14.4285714285714" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.14285714285714" style="4"/>
+    <col min="4" max="4" width="31.3928571428571" style="5" customWidth="1"/>
+    <col min="5" max="5" width="68.1428571428571" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="13" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="24" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>228</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>228</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>88</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="24" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>78</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="36" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>8.5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="36" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1196,4 +1269,388 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="3" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="10.7053571428571" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7946428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.0803571428571" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8.94</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/FIND_DEMO/物料清单.xlsx
+++ b/FIND_DEMO/物料清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13480"/>
+    <workbookView windowWidth="28800" windowHeight="13480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -183,7 +183,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +205,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -205,23 +220,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,8 +243,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,62 +297,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +311,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -328,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,32 +550,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -605,6 +579,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -624,157 +624,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,151 +1106,151 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="4"/>
-    <col min="2" max="2" width="14.4285714285714" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.14285714285714" style="4"/>
-    <col min="4" max="4" width="31.3928571428571" style="5" customWidth="1"/>
-    <col min="5" max="5" width="68.1428571428571" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="4"/>
+    <col min="1" max="1" width="9.14285714285714" style="3"/>
+    <col min="2" max="2" width="14.4285714285714" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.14285714285714" style="3"/>
+    <col min="4" max="4" width="31.3928571428571" style="4" customWidth="1"/>
+    <col min="5" max="5" width="68.1428571428571" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="13" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" ht="13" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="24" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>228</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>228</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>88</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="24" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>78</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="36" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>8.5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="36" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1276,8 +1273,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1290,33 +1287,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="1">
@@ -1342,10 +1339,10 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="1">
